--- a/QUANTIDADE DE VEÍCULOS LOCADOS - DIRETORIAS.xlsx
+++ b/QUANTIDADE DE VEÍCULOS LOCADOS - DIRETORIAS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\es.bruno.vargas\Desktop\escolas_indigina_quilo_assent\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Desktop\escolas_indigina_quilo_assent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E7E5D3-98CD-4745-8FF1-D0F796064718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB117F0-2606-45F3-8ECB-62EA4E8542C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="315" windowWidth="14280" windowHeight="11385" xr2:uid="{98A2B135-6AD8-4E37-852B-45D3D64D6180}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{98A2B135-6AD8-4E37-852B-45D3D64D6180}"/>
   </bookViews>
   <sheets>
     <sheet name="QUANTIDADE DE VEÍCULOS " sheetId="1" r:id="rId1"/>
@@ -330,7 +330,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,27 +353,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -382,7 +367,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -722,33 +707,33 @@
   </sheetPr>
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83:D92"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
@@ -761,8 +746,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
@@ -775,8 +760,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1">
@@ -789,8 +774,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
@@ -803,8 +788,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
@@ -817,8 +802,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1">
@@ -831,8 +816,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1">
@@ -845,8 +830,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1">
@@ -859,8 +844,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1">
@@ -873,8 +858,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1">
@@ -887,8 +872,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1">
@@ -901,8 +886,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1">
@@ -915,8 +900,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1">
@@ -929,8 +914,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1">
@@ -943,8 +928,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="1">
@@ -957,8 +942,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="1">
@@ -971,8 +956,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="1">
@@ -985,8 +970,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="1">
@@ -999,8 +984,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="1">
@@ -1013,8 +998,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="1">
@@ -1027,8 +1012,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="1">
@@ -1041,8 +1026,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="1">
@@ -1055,8 +1040,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="1">
@@ -1069,8 +1054,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="1">
@@ -1083,8 +1068,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="1">
@@ -1097,8 +1082,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="1">
@@ -1111,8 +1096,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="1">
@@ -1125,8 +1110,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="1">
@@ -1139,8 +1124,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="1">
@@ -1153,8 +1138,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="1">
@@ -1167,8 +1152,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="1">
@@ -1181,8 +1166,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="1">
@@ -1195,8 +1180,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="1">
@@ -1209,8 +1194,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="1">
@@ -1223,8 +1208,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="1">
@@ -1237,8 +1222,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="1">
@@ -1251,8 +1236,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="1">
@@ -1265,8 +1250,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="1">
@@ -1279,8 +1264,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="1">
@@ -1293,8 +1278,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="1">
@@ -1307,8 +1292,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="1">
@@ -1321,8 +1306,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43" s="1">
@@ -1335,8 +1320,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="1">
@@ -1349,8 +1334,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="1">
@@ -1363,8 +1348,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="1">
@@ -1377,8 +1362,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
         <v>45</v>
       </c>
       <c r="B47" s="1">
@@ -1391,8 +1376,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="1">
@@ -1405,8 +1390,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
         <v>47</v>
       </c>
       <c r="B49" s="1">
@@ -1419,8 +1404,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
         <v>48</v>
       </c>
       <c r="B50" s="1">
@@ -1433,8 +1418,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
         <v>49</v>
       </c>
       <c r="B51" s="1">
@@ -1447,8 +1432,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
         <v>50</v>
       </c>
       <c r="B52" s="1">
@@ -1461,8 +1446,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
         <v>51</v>
       </c>
       <c r="B53" s="1">
@@ -1475,8 +1460,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
         <v>52</v>
       </c>
       <c r="B54" s="1">
@@ -1489,8 +1474,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
         <v>53</v>
       </c>
       <c r="B55" s="1">
@@ -1503,8 +1488,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
         <v>54</v>
       </c>
       <c r="B56" s="1">
@@ -1517,8 +1502,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
         <v>55</v>
       </c>
       <c r="B57" s="1">
@@ -1531,8 +1516,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
         <v>56</v>
       </c>
       <c r="B58" s="1">
@@ -1545,8 +1530,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
         <v>57</v>
       </c>
       <c r="B59" s="1">
@@ -1559,8 +1544,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
         <v>58</v>
       </c>
       <c r="B60" s="1">
@@ -1573,8 +1558,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
         <v>59</v>
       </c>
       <c r="B61" s="1">
@@ -1587,8 +1572,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
         <v>60</v>
       </c>
       <c r="B62" s="1">
@@ -1601,8 +1586,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
         <v>61</v>
       </c>
       <c r="B63" s="1">
@@ -1615,8 +1600,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
         <v>62</v>
       </c>
       <c r="B64" s="1">
@@ -1629,8 +1614,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
         <v>63</v>
       </c>
       <c r="B65" s="1">
@@ -1643,8 +1628,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
         <v>64</v>
       </c>
       <c r="B66" s="1">
@@ -1657,8 +1642,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
         <v>65</v>
       </c>
       <c r="B67" s="1">
@@ -1671,8 +1656,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
         <v>66</v>
       </c>
       <c r="B68" s="1">
@@ -1685,8 +1670,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+    <row r="69" spans="1:4" ht="15" customHeight="1">
+      <c r="A69" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="1">
@@ -1699,8 +1684,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
         <v>68</v>
       </c>
       <c r="B70" s="1">
@@ -1713,8 +1698,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
         <v>69</v>
       </c>
       <c r="B71" s="1">
@@ -1727,8 +1712,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
         <v>70</v>
       </c>
       <c r="B72" s="1">
@@ -1741,8 +1726,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
         <v>71</v>
       </c>
       <c r="B73" s="1">
@@ -1755,8 +1740,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
         <v>72</v>
       </c>
       <c r="B74" s="1">
@@ -1769,8 +1754,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
         <v>73</v>
       </c>
       <c r="B75" s="1">
@@ -1783,8 +1768,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
         <v>74</v>
       </c>
       <c r="B76" s="1">
@@ -1797,8 +1782,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
         <v>75</v>
       </c>
       <c r="B77" s="1">
@@ -1811,8 +1796,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
         <v>76</v>
       </c>
       <c r="B78" s="1">
@@ -1825,8 +1810,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
         <v>77</v>
       </c>
       <c r="B79" s="1">
@@ -1839,8 +1824,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
         <v>78</v>
       </c>
       <c r="B80" s="1">
@@ -1853,8 +1838,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
         <v>79</v>
       </c>
       <c r="B81" s="1">
@@ -1867,8 +1852,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
         <v>80</v>
       </c>
       <c r="B82" s="1">
@@ -1881,8 +1866,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
         <v>81</v>
       </c>
       <c r="B83" s="1">
@@ -1895,8 +1880,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
         <v>82</v>
       </c>
       <c r="B84" s="1">
@@ -1909,8 +1894,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
         <v>83</v>
       </c>
       <c r="B85" s="1">
@@ -1923,8 +1908,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
         <v>84</v>
       </c>
       <c r="B86" s="1">
@@ -1937,8 +1922,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
         <v>85</v>
       </c>
       <c r="B87" s="1">
@@ -1951,8 +1936,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
         <v>86</v>
       </c>
       <c r="B88" s="1">
@@ -1965,8 +1950,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
         <v>87</v>
       </c>
       <c r="B89" s="1">
@@ -1979,8 +1964,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
         <v>88</v>
       </c>
       <c r="B90" s="1">
@@ -1993,8 +1978,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
         <v>89</v>
       </c>
       <c r="B91" s="1">
@@ -2007,8 +1992,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
         <v>90</v>
       </c>
       <c r="B92" s="1">
